--- a/api/lotr quotes V1.2.xlsx
+++ b/api/lotr quotes V1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jayha\Documents\GitHub\GarageBox\api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168633A8-156B-4BA6-8DA7-A93E9F108645}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA112498-0A92-4FF3-896E-BC457A810FA3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{5001E69C-9912-48C3-9508-4FCB4D360261}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="QA" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2258,8 +2257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F98B8C2-4AC1-465B-94B0-640784CBB05A}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2849,6 +2848,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D54290B46AE4BE47B699A9C32191A2E7" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="be7874cad4f8cc746e47beaa074fd690">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6ca7cefa-de2d-4377-ba25-4cbf3528a364" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="22fb6bfd2e076f1fc42013fd24bf5097" ns2:_="">
     <xsd:import namespace="6ca7cefa-de2d-4377-ba25-4cbf3528a364"/>
@@ -3006,35 +3020,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1C275ED-70FB-40D8-A701-9284F7CF8572}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{654F2710-AE78-496C-881E-EEF0A135991F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="6ca7cefa-de2d-4377-ba25-4cbf3528a364"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3056,9 +3045,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{654F2710-AE78-496C-881E-EEF0A135991F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1C275ED-70FB-40D8-A701-9284F7CF8572}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6ca7cefa-de2d-4377-ba25-4cbf3528a364"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/api/lotr quotes V1.2.xlsx
+++ b/api/lotr quotes V1.2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jayha\Documents\GitHub\GarageBox\api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA112498-0A92-4FF3-896E-BC457A810FA3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D1BC7F-5979-49DB-918F-B51D249B4E16}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{5001E69C-9912-48C3-9508-4FCB4D360261}"/>
+    <workbookView xWindow="-27960" yWindow="2895" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{5001E69C-9912-48C3-9508-4FCB4D360261}"/>
   </bookViews>
   <sheets>
     <sheet name="Quote list" sheetId="1" r:id="rId1"/>
@@ -658,7 +658,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -674,7 +674,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2257,8 +2257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F98B8C2-4AC1-465B-94B0-640784CBB05A}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2848,21 +2848,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D54290B46AE4BE47B699A9C32191A2E7" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="be7874cad4f8cc746e47beaa074fd690">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6ca7cefa-de2d-4377-ba25-4cbf3528a364" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="22fb6bfd2e076f1fc42013fd24bf5097" ns2:_="">
     <xsd:import namespace="6ca7cefa-de2d-4377-ba25-4cbf3528a364"/>
@@ -3020,10 +3005,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{654F2710-AE78-496C-881E-EEF0A135991F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1C275ED-70FB-40D8-A701-9284F7CF8572}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6ca7cefa-de2d-4377-ba25-4cbf3528a364"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3045,19 +3055,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1C275ED-70FB-40D8-A701-9284F7CF8572}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{654F2710-AE78-496C-881E-EEF0A135991F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="6ca7cefa-de2d-4377-ba25-4cbf3528a364"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>